--- a/Samplesize.xlsx
+++ b/Samplesize.xlsx
@@ -1,76 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c310e04e69d1e3b/UCLA/DISSERTATION/AERA 2026 meeting/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C3CE303C00096B4CBC8373BA5F094987AAF4128E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF3F2BB-8B28-47E0-BB87-AA292571AA5D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Grade</t>
+    <t>Grade</t>
   </si>
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">FirstTested</t>
+    <t>FirstTested</t>
   </si>
   <si>
-    <t xml:space="preserve">SampleSize</t>
+    <t>SampleSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Size_reduced</t>
+    <t>Size_reduced</t>
   </si>
   <si>
-    <t xml:space="preserve">Size_excludeexempt</t>
+    <t>Size_excludeexempt</t>
   </si>
   <si>
-    <t xml:space="preserve">Size_cleaned</t>
+    <t>Size_cleaned</t>
   </si>
   <si>
-    <t xml:space="preserve">Size_DISABILITYinit</t>
+    <t>Size_DISABILITYinit</t>
   </si>
   <si>
-    <t xml:space="preserve">Size_leftjoin1</t>
+    <t>Size_leftjoin1</t>
   </si>
   <si>
-    <t xml:space="preserve">KG</t>
+    <t>KG</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
+    <t>01</t>
   </si>
   <si>
-    <t xml:space="preserve">02</t>
+    <t>02</t>
   </si>
   <si>
-    <t xml:space="preserve">03</t>
+    <t>03</t>
   </si>
   <si>
-    <t xml:space="preserve">04</t>
+    <t>04</t>
   </si>
   <si>
-    <t xml:space="preserve">05</t>
+    <t>05</t>
   </si>
   <si>
-    <t xml:space="preserve">06</t>
+    <t>06</t>
   </si>
   <si>
-    <t xml:space="preserve">07</t>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Notes: SampleSize: size of original data set; Size_reduced: size of sample excluding students who were not tested in expected grades; Size-excludeexempt: size of sample exlucding students who have exempt domains; Size_cleaned: size of sample excluding studnts who missed tests before reaching proficiency; Size_DISABILITYinit: size of sample excluding students without info about initial disability status; Size_leftjoin1: size of sample excluding students proficient in initial year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,6 +127,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -387,14 +417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,3344 +455,3277 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1617</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5543</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5035</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4734</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3678</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>3678</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3366</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1718</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12611</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>11916</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>11437</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9227</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>9227</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>8652</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1819</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>19146</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>18144</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>17495</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14392</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>14392</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>12874</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1920</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20378</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>19451</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>18799</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>15712</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>15712</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>14056</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2021</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16509</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>15793</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>15490</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13585</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>13585</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>12315</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2122</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>19711</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>19049</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>18699</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>16786</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>16786</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>15707</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2223</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>19771</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>19276</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>18971</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>17848</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>17848</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>16460</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2324</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20845</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>20845</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>20605</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>20605</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1718</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4495</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>4262</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4025</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3407</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3407</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>3366</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1718</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1849</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1751</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1652</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1162</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1162</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>963</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1819</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10734</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>10476</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>10143</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>8766</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>8766</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>8652</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1819</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2522</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2422</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>2297</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1656</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1656</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>1330</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1920</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>15520</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>15247</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>14808</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>13033</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>13033</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>12874</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1920</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2587</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2502</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2401</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1818</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1818</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>1429</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>16370</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>16082</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>15808</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>14358</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>14358</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>14056</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2021</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1661</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1601</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1550</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1205</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1205</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>998</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2122</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>13750</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>13564</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>13331</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>12374</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>12374</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>12315</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2122</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>3003</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2906</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2838</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>2401</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>2401</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>2000</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2223</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>16802</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>16680</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>16456</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>15757</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>15757</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>15707</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2223</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2710</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>2653</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2616</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2326</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>2326</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>1970</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2324</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>16730</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>16730</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>16537</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>16537</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2324</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>3460</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>3460</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3418</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3418</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1819</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3482</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3378</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3168</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2767</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>2767</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>2729</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1819</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1318</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1289</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1225</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>987</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>987</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>963</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1819</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1691</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1620</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1530</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1120</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>1120</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>808</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1920</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>8635</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>8549</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>8286</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>7341</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>7341</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>7224</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1920</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1781</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>1749</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1671</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1354</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>1354</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1330</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1920</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>1887</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1836</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1729</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1278</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>1278</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>970</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2021</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>11471</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>11362</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>11147</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>10244</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>10244</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>9969</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2021</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1809</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1782</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1739</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1475</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>1475</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>1429</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2021</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1045</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1013</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>972</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>732</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>732</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>555</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2122</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>13430</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>13337</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>13118</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>12347</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>12347</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>12080</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2122</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1200</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>1187</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1149</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1007</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>1007</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>998</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2122</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1690</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>1651</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1621</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1328</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>1328</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>1082</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2223</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>10770</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>10723</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>10573</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>10208</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>10208</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>10142</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2223</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2202</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2184</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>2144</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2016</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>2016</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>2000</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2223</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1945</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>1925</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1898</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1681</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>1681</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>1415</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2324</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>13317</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>13317</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>13166</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>13166</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2324</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2003</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>2003</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>1981</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1981</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2324</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2696</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2696</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>2669</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2669</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1920</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>2343</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2292</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>2105</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1813</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>1813</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>1777</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1920</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>904</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>892</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>845</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>691</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>691</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>672</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1920</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1114</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>1095</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1045</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>846</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>846</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>808</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1920</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1878</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>1796</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1720</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1284</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>1284</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>990</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2021</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>5988</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>5953</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>5830</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>5235</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>5235</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>5044</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2021</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1218</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>1204</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1169</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>990</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>990</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>945</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2021</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1322</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>1305</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1267</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1042</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>1042</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>970</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2021</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1041</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>1020</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>989</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>744</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>744</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>539</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2122</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>8842</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>8805</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>8628</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>8077</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>8077</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>7876</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2122</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1368</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>1365</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>1332</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>1192</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>1192</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>1162</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2122</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>704</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>698</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>670</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>564</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>564</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>555</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2122</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>1515</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>1488</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>1452</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>1187</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>1187</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>967</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2223</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>9762</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>9731</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>9590</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>9270</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>9270</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>9056</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2223</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>810</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>806</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>781</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>743</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>743</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>733</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>2223</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1216</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>1206</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>1187</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1095</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>1095</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>1082</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>2223</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1926</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>1895</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>1871</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>1654</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>1654</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>1454</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>2324</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>7768</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>7768</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>7666</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>7666</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>2324</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1581</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>1581</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>1553</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>1553</v>
       </c>
-      <c r="H59"/>
-      <c r="I59"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>2324</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1449</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>1449</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>1436</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1436</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2324</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>2539</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>2539</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>2516</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>2516</v>
       </c>
-      <c r="H61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2021</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1652</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>1637</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>1529</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>1382</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>1382</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1304</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>2021</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>693</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>684</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>654</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>565</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>565</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>543</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2021</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>863</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>855</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>831</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>704</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>704</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>667</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2021</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1309</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>1289</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>1254</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>1038</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>1038</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>990</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2021</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>769</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>757</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>731</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>542</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>542</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>391</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>2122</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>4778</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>4770</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>4677</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>4310</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>4310</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>4157</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2122</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>966</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>961</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>932</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>815</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>815</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>781</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2122</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1030</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>1025</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>995</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>876</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>876</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>829</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2122</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>690</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>686</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>665</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>547</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>547</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>539</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2122</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1256</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>1240</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>1214</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>957</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>957</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>802</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>2223</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>7030</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>7019</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>6897</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>6657</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>6657</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>6482</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2223</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>1083</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>1082</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>1058</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>999</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>999</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>972</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2223</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>528</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>528</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>507</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>472</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>472</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>462</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2223</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>1072</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>1064</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>1044</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>973</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>973</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>967</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2223</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1612</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>1592</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>1570</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>1362</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>1362</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>1242</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>2324</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>7409</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>7409</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>7308</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>7308</v>
       </c>
-      <c r="H77"/>
-      <c r="I77"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2324</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>616</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>616</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>601</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>601</v>
       </c>
-      <c r="H78"/>
-      <c r="I78"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2324</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>932</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>932</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>920</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>920</v>
       </c>
-      <c r="H79"/>
-      <c r="I79"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2324</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>1475</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>1475</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>1463</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>1463</v>
       </c>
-      <c r="H80"/>
-      <c r="I80"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2324</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>2284</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>2284</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>2251</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>2251</v>
       </c>
-      <c r="H81"/>
-      <c r="I81"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2122</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>1328</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>1322</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>1229</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>1130</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>1130</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>1060</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2122</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>517</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>514</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>492</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>434</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>434</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>414</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2122</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>671</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>666</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>646</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>572</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>572</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>544</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2122</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>1029</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>1019</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>993</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>877</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>877</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>848</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2122</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>506</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>503</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>484</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>398</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>398</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>391</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>2122</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1181</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>1166</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>1139</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>896</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>896</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>798</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>2223</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>3724</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>3724</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>3653</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>3461</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>3461</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>3335</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2223</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>740</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>739</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>721</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>664</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>664</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>632</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2223</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>816</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>813</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>797</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>739</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>739</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>706</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2223</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>492</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>491</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>481</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>429</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>429</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>424</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2223</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>911</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>907</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>896</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>809</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>809</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>802</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2223</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>1454</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>1439</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>1419</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>1229</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>1229</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>1139</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>14</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2324</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>5612</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>5612</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>5525</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>5525</v>
       </c>
-      <c r="H94"/>
-      <c r="I94"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>14</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2324</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>864</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>864</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>850</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>850</v>
       </c>
-      <c r="H95"/>
-      <c r="I95"/>
-    </row>
-    <row r="96">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2324</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>398</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>398</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>384</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>384</v>
       </c>
-      <c r="H96"/>
-      <c r="I96"/>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2324</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>841</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>841</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>825</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>825</v>
       </c>
-      <c r="H97"/>
-      <c r="I97"/>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2324</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>1260</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>1260</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>1249</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>1249</v>
       </c>
-      <c r="H98"/>
-      <c r="I98"/>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2324</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>2031</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>2031</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>2008</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>2008</v>
       </c>
-      <c r="H99"/>
-      <c r="I99"/>
-    </row>
-    <row r="100">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2223</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>1084</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>1083</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>1018</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>973</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>973</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>898</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2223</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>412</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>412</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>397</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>373</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>373</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>355</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>15</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>2223</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>534</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>534</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>516</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>481</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>481</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>455</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2223</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>851</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>848</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>829</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>778</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>778</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>754</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>2223</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>370</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>370</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>356</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>324</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>324</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>321</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2223</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>898</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>893</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>879</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>804</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>804</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>798</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>2223</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>1456</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>1437</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>1412</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>1219</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>1219</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>1092</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>15</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2324</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>3087</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>3087</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>3039</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>3039</v>
       </c>
-      <c r="H107"/>
-      <c r="I107"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2324</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>604</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>604</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>594</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>594</v>
       </c>
-      <c r="H108"/>
-      <c r="I108"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2324</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>675</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>675</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>664</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>664</v>
       </c>
-      <c r="H109"/>
-      <c r="I109"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>15</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2324</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>389</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>389</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>381</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>381</v>
       </c>
-      <c r="H110"/>
-      <c r="I110"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>2324</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>739</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>739</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>733</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>733</v>
       </c>
-      <c r="H111"/>
-      <c r="I111"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>15</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2324</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>1155</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>1155</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>1147</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>1147</v>
       </c>
-      <c r="H112"/>
-      <c r="I112"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2324</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>2074</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>2074</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>2068</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>2068</v>
       </c>
-      <c r="H113"/>
-      <c r="I113"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>2324</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>892</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>892</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>842</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>842</v>
       </c>
-      <c r="H114"/>
-      <c r="I114"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2324</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>342</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>342</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>331</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>331</v>
       </c>
-      <c r="H115"/>
-      <c r="I115"/>
-    </row>
-    <row r="116">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2324</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>430</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>430</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>417</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>417</v>
       </c>
-      <c r="H116"/>
-      <c r="I116"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>2324</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>682</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>682</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>667</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>667</v>
       </c>
-      <c r="H117"/>
-      <c r="I117"/>
-    </row>
-    <row r="118">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>2324</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>288</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>288</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>279</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>279</v>
       </c>
-      <c r="H118"/>
-      <c r="I118"/>
-    </row>
-    <row r="119">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2324</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>719</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>719</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>711</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>711</v>
       </c>
-      <c r="H119"/>
-      <c r="I119"/>
-    </row>
-    <row r="120">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2324</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>1114</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>1114</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>1100</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>1100</v>
       </c>
-      <c r="H120"/>
-      <c r="I120"/>
-    </row>
-    <row r="121">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2324</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>2040</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>2040</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>2014</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>2014</v>
       </c>
-      <c r="H121"/>
-      <c r="I121"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>